--- a/code/results_cellsMejorado/results_cec2017_50.xlsx
+++ b/code/results_cellsMejorado/results_cec2017_50.xlsx
@@ -582,94 +582,94 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>272386830</v>
+        <v>53970570</v>
       </c>
       <c r="E2">
-        <v>5.690386402199999E+18</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F2">
-        <v>102344.562</v>
+        <v>99329.14400000001</v>
       </c>
       <c r="G2">
-        <v>132.65249</v>
+        <v>122.374085</v>
       </c>
       <c r="H2">
-        <v>119.69693</v>
+        <v>104.117558</v>
       </c>
       <c r="I2">
-        <v>4.8452392</v>
+        <v>3.0571443</v>
       </c>
       <c r="J2">
-        <v>213.73985</v>
+        <v>163.02185</v>
       </c>
       <c r="K2">
-        <v>111.304962</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L2">
-        <v>772.9562800000001</v>
+        <v>679.5418699999999</v>
       </c>
       <c r="M2">
-        <v>3495.915399999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N2">
-        <v>1011.09</v>
+        <v>971.2873900000002</v>
       </c>
       <c r="O2">
-        <v>42261656</v>
+        <v>15257617</v>
       </c>
       <c r="P2">
-        <v>45610997</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q2">
-        <v>362255.35</v>
+        <v>420582.96</v>
       </c>
       <c r="R2">
-        <v>7802708</v>
+        <v>886926.5</v>
       </c>
       <c r="S2">
-        <v>1078.39229</v>
+        <v>1000.75866</v>
       </c>
       <c r="T2">
-        <v>322.1565200000001</v>
+        <v>364.44744</v>
       </c>
       <c r="U2">
-        <v>1115853.12</v>
+        <v>946312.39</v>
       </c>
       <c r="V2">
-        <v>10444793.1</v>
+        <v>3208129.2</v>
       </c>
       <c r="W2">
-        <v>472.27617</v>
+        <v>233.45341</v>
       </c>
       <c r="X2">
-        <v>253.2834</v>
+        <v>290.79679</v>
       </c>
       <c r="Y2">
-        <v>198.49614</v>
+        <v>138.059</v>
       </c>
       <c r="Z2">
-        <v>428.9448</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA2">
-        <v>549.6827999999999</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB2">
-        <v>419.84425</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC2">
-        <v>670.1601900000002</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD2">
-        <v>538.5740600000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE2">
-        <v>468.92089</v>
+        <v>456.3332</v>
       </c>
       <c r="AF2">
-        <v>756.5737499999999</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG2">
-        <v>2693751.27</v>
+        <v>1562346.35</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -683,94 +683,94 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>2862847600</v>
+        <v>7849061000</v>
       </c>
       <c r="E3">
-        <v>1.709365258022172E+52</v>
+        <v>5.56899E+52</v>
       </c>
       <c r="F3">
-        <v>320375.19</v>
+        <v>331534.6</v>
       </c>
       <c r="G3">
-        <v>589.8826299999999</v>
+        <v>824.2093000000002</v>
       </c>
       <c r="H3">
-        <v>347.91281</v>
+        <v>416.4173</v>
       </c>
       <c r="I3">
-        <v>14.45515</v>
+        <v>24.83057</v>
       </c>
       <c r="J3">
-        <v>549.2487</v>
+        <v>645.9593999999998</v>
       </c>
       <c r="K3">
-        <v>354.1471299999999</v>
+        <v>374.6478000000001</v>
       </c>
       <c r="L3">
-        <v>8443.562599999999</v>
+        <v>11914.71</v>
       </c>
       <c r="M3">
-        <v>8643.235200000001</v>
+        <v>9368.315999999997</v>
       </c>
       <c r="N3">
-        <v>30214.20600000001</v>
+        <v>22865.52</v>
       </c>
       <c r="O3">
-        <v>1528708670</v>
+        <v>2270111000</v>
       </c>
       <c r="P3">
-        <v>890062590</v>
+        <v>2694230000</v>
       </c>
       <c r="Q3">
-        <v>16039905.7</v>
+        <v>22430030</v>
       </c>
       <c r="R3">
-        <v>593635430</v>
+        <v>1424046000</v>
       </c>
       <c r="S3">
-        <v>3011.35</v>
+        <v>3202.084</v>
       </c>
       <c r="T3">
-        <v>2402.4719</v>
+        <v>2537.863</v>
       </c>
       <c r="U3">
-        <v>42875064.9</v>
+        <v>73412330</v>
       </c>
       <c r="V3">
-        <v>198526480</v>
+        <v>628306600</v>
       </c>
       <c r="W3">
-        <v>1996.0246</v>
+        <v>1704.363</v>
       </c>
       <c r="X3">
-        <v>546.3841199999999</v>
+        <v>608.3486000000001</v>
       </c>
       <c r="Y3">
-        <v>9361.072499999998</v>
+        <v>10322.65</v>
       </c>
       <c r="Z3">
-        <v>837.8920300000002</v>
+        <v>872.0255</v>
       </c>
       <c r="AA3">
-        <v>1131.2358</v>
+        <v>1219.55</v>
       </c>
       <c r="AB3">
-        <v>982.1435299999999</v>
+        <v>1325.905</v>
       </c>
       <c r="AC3">
-        <v>5374.097299999999</v>
+        <v>5079.345999999999</v>
       </c>
       <c r="AD3">
-        <v>937.2906299999999</v>
+        <v>1037.763</v>
       </c>
       <c r="AE3">
-        <v>1145.74134</v>
+        <v>1859.119</v>
       </c>
       <c r="AF3">
-        <v>2016.2217</v>
+        <v>2786.091</v>
       </c>
       <c r="AG3">
-        <v>252614282</v>
+        <v>347363300</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -784,94 +784,94 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>1378382900</v>
+        <v>2450226000</v>
       </c>
       <c r="E4">
-        <v>3.728183190586E+44</v>
+        <v>1.223953E+49</v>
       </c>
       <c r="F4">
-        <v>319907.59</v>
+        <v>331534.5</v>
       </c>
       <c r="G4">
-        <v>395.76039</v>
+        <v>533.6866</v>
       </c>
       <c r="H4">
-        <v>301.40525</v>
+        <v>317.596</v>
       </c>
       <c r="I4">
-        <v>10.0152216</v>
+        <v>13.89679</v>
       </c>
       <c r="J4">
-        <v>466.712</v>
+        <v>477.7369</v>
       </c>
       <c r="K4">
-        <v>299.03809</v>
+        <v>295.6653999999999</v>
       </c>
       <c r="L4">
-        <v>6267.4564</v>
+        <v>8467.940000000001</v>
       </c>
       <c r="M4">
-        <v>7777.5787</v>
+        <v>7580.309999999999</v>
       </c>
       <c r="N4">
-        <v>27086.06</v>
+        <v>22523.41999999999</v>
       </c>
       <c r="O4">
-        <v>594751960</v>
+        <v>1264575000</v>
       </c>
       <c r="P4">
-        <v>346118560</v>
+        <v>158645400</v>
       </c>
       <c r="Q4">
-        <v>9017464.4</v>
+        <v>14947810</v>
       </c>
       <c r="R4">
-        <v>262693630</v>
+        <v>484079300</v>
       </c>
       <c r="S4">
-        <v>2730.3297</v>
+        <v>2623.614999999999</v>
       </c>
       <c r="T4">
-        <v>2068.1268</v>
+        <v>1401.119</v>
       </c>
       <c r="U4">
-        <v>30639275</v>
+        <v>41188770</v>
       </c>
       <c r="V4">
-        <v>85447066</v>
+        <v>94679540</v>
       </c>
       <c r="W4">
-        <v>1744.7638</v>
+        <v>1616.947</v>
       </c>
       <c r="X4">
-        <v>497.60868</v>
+        <v>526.8473999999999</v>
       </c>
       <c r="Y4">
-        <v>8348.741299999998</v>
+        <v>8963.973</v>
       </c>
       <c r="Z4">
-        <v>784.2704</v>
+        <v>815.8828999999998</v>
       </c>
       <c r="AA4">
-        <v>1080.8963</v>
+        <v>1153.297</v>
       </c>
       <c r="AB4">
-        <v>784.46912</v>
+        <v>881.6047000000001</v>
       </c>
       <c r="AC4">
-        <v>4595.3555</v>
+        <v>2257.561999999999</v>
       </c>
       <c r="AD4">
-        <v>852.78917</v>
+        <v>856.6775</v>
       </c>
       <c r="AE4">
-        <v>838.45484</v>
+        <v>1075.266</v>
       </c>
       <c r="AF4">
-        <v>1630.1103</v>
+        <v>1929.743</v>
       </c>
       <c r="AG4">
-        <v>114925487</v>
+        <v>172330800</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -885,94 +885,94 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>1070486810</v>
+        <v>1047307000</v>
       </c>
       <c r="E5">
-        <v>3.703737589582E+42</v>
+        <v>7.318098000000001E+43</v>
       </c>
       <c r="F5">
-        <v>319778.92</v>
+        <v>331344.2999999999</v>
       </c>
       <c r="G5">
-        <v>345.42034</v>
+        <v>377.8519999999999</v>
       </c>
       <c r="H5">
-        <v>279.98029</v>
+        <v>267.0668</v>
       </c>
       <c r="I5">
-        <v>8.360402700000002</v>
+        <v>9.035174</v>
       </c>
       <c r="J5">
-        <v>431.53042</v>
+        <v>450.7312000000001</v>
       </c>
       <c r="K5">
-        <v>287.6287199999999</v>
+        <v>271.9778999999999</v>
       </c>
       <c r="L5">
-        <v>5695.086</v>
+        <v>6512.680999999999</v>
       </c>
       <c r="M5">
-        <v>7565.666800000001</v>
+        <v>6605.372000000001</v>
       </c>
       <c r="N5">
-        <v>25010.798</v>
+        <v>21965.85</v>
       </c>
       <c r="O5">
-        <v>479469880</v>
+        <v>640343200</v>
       </c>
       <c r="P5">
-        <v>265179390</v>
+        <v>127455000</v>
       </c>
       <c r="Q5">
-        <v>7225493</v>
+        <v>7052155</v>
       </c>
       <c r="R5">
-        <v>207261970</v>
+        <v>274234700</v>
       </c>
       <c r="S5">
-        <v>2602.4154</v>
+        <v>2607.176</v>
       </c>
       <c r="T5">
-        <v>1965.1346</v>
+        <v>1244.936</v>
       </c>
       <c r="U5">
-        <v>24201010.9</v>
+        <v>40444610</v>
       </c>
       <c r="V5">
-        <v>59032143</v>
+        <v>57544420</v>
       </c>
       <c r="W5">
-        <v>1700.2715</v>
+        <v>1573.643</v>
       </c>
       <c r="X5">
-        <v>484.50589</v>
+        <v>490.6059999999999</v>
       </c>
       <c r="Y5">
-        <v>7987.445299999999</v>
+        <v>7704.319000000001</v>
       </c>
       <c r="Z5">
-        <v>759.3262</v>
+        <v>780.9701000000001</v>
       </c>
       <c r="AA5">
-        <v>1056.2269</v>
+        <v>1105.122</v>
       </c>
       <c r="AB5">
-        <v>725.0694000000001</v>
+        <v>755.7168</v>
       </c>
       <c r="AC5">
-        <v>4407.9473</v>
+        <v>1517.026</v>
       </c>
       <c r="AD5">
-        <v>814.36502</v>
+        <v>768.2954</v>
       </c>
       <c r="AE5">
-        <v>716.3881100000001</v>
+        <v>785.3338000000001</v>
       </c>
       <c r="AF5">
-        <v>1495.2049</v>
+        <v>1715.441</v>
       </c>
       <c r="AG5">
-        <v>82454467</v>
+        <v>65003830</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -986,94 +986,94 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>949496190</v>
+        <v>391942700</v>
       </c>
       <c r="E6">
-        <v>1.16634135985806E+40</v>
+        <v>6.117890000000002E+42</v>
       </c>
       <c r="F6">
-        <v>319778.92</v>
+        <v>331344.2999999999</v>
       </c>
       <c r="G6">
-        <v>314.21838</v>
+        <v>308.5169</v>
       </c>
       <c r="H6">
-        <v>273.75347</v>
+        <v>227.9572</v>
       </c>
       <c r="I6">
-        <v>7.209235500000001</v>
+        <v>5.237464000000001</v>
       </c>
       <c r="J6">
-        <v>413.6531800000001</v>
+        <v>396.4349000000001</v>
       </c>
       <c r="K6">
-        <v>274.25047</v>
+        <v>233.7658000000001</v>
       </c>
       <c r="L6">
-        <v>5547.1848</v>
+        <v>4769.059999999999</v>
       </c>
       <c r="M6">
-        <v>7360.621600000001</v>
+        <v>5990.623999999999</v>
       </c>
       <c r="N6">
-        <v>23901.193</v>
+        <v>18044.49</v>
       </c>
       <c r="O6">
-        <v>378245120</v>
+        <v>221977200</v>
       </c>
       <c r="P6">
-        <v>218224680</v>
+        <v>68232450</v>
       </c>
       <c r="Q6">
-        <v>5788349.5</v>
+        <v>5021778</v>
       </c>
       <c r="R6">
-        <v>143635126</v>
+        <v>103249200</v>
       </c>
       <c r="S6">
-        <v>2474.231299999999</v>
+        <v>2198.307</v>
       </c>
       <c r="T6">
-        <v>1833.025799999999</v>
+        <v>1165.547</v>
       </c>
       <c r="U6">
-        <v>21234592.3</v>
+        <v>31234760</v>
       </c>
       <c r="V6">
-        <v>49961201</v>
+        <v>14730380</v>
       </c>
       <c r="W6">
-        <v>1611.0235</v>
+        <v>1039.698</v>
       </c>
       <c r="X6">
-        <v>478.69823</v>
+        <v>426.8267</v>
       </c>
       <c r="Y6">
-        <v>7801.338399999999</v>
+        <v>6779.955</v>
       </c>
       <c r="Z6">
-        <v>733.98238</v>
+        <v>712.0923000000001</v>
       </c>
       <c r="AA6">
-        <v>1046.5567</v>
+        <v>1087.215</v>
       </c>
       <c r="AB6">
-        <v>691.9473600000001</v>
+        <v>642.3521</v>
       </c>
       <c r="AC6">
-        <v>4335.605</v>
+        <v>1189.058</v>
       </c>
       <c r="AD6">
-        <v>782.0588500000001</v>
+        <v>717.0847999999999</v>
       </c>
       <c r="AE6">
-        <v>656.2981600000001</v>
+        <v>650.4586</v>
       </c>
       <c r="AF6">
-        <v>1456.7975</v>
+        <v>1425.384</v>
       </c>
       <c r="AG6">
-        <v>52790078</v>
+        <v>31700790</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1087,94 +1087,94 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>876574950</v>
+        <v>114652800</v>
       </c>
       <c r="E7">
-        <v>7.495515893072801E+39</v>
+        <v>5.558730999999999E+33</v>
       </c>
       <c r="F7">
-        <v>319778.92</v>
+        <v>330852.1</v>
       </c>
       <c r="G7">
-        <v>292.07574</v>
+        <v>202.1615</v>
       </c>
       <c r="H7">
-        <v>270.30447</v>
+        <v>182.6628</v>
       </c>
       <c r="I7">
-        <v>6.5151568</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J7">
-        <v>412.29259</v>
+        <v>333.2349</v>
       </c>
       <c r="K7">
-        <v>271.12074</v>
+        <v>182.8834</v>
       </c>
       <c r="L7">
-        <v>5358.5436</v>
+        <v>3193.806</v>
       </c>
       <c r="M7">
-        <v>7171.7525</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N7">
-        <v>23057.986</v>
+        <v>15243.88</v>
       </c>
       <c r="O7">
-        <v>343295290</v>
+        <v>54612870</v>
       </c>
       <c r="P7">
-        <v>205711170</v>
+        <v>39903570</v>
       </c>
       <c r="Q7">
-        <v>5716122.8</v>
+        <v>2300800</v>
       </c>
       <c r="R7">
-        <v>135290688</v>
+        <v>15044950</v>
       </c>
       <c r="S7">
-        <v>2456.69</v>
+        <v>1838.411</v>
       </c>
       <c r="T7">
-        <v>1803.7412</v>
+        <v>1059.864</v>
       </c>
       <c r="U7">
-        <v>20632916</v>
+        <v>18889950</v>
       </c>
       <c r="V7">
-        <v>49753156</v>
+        <v>3836012</v>
       </c>
       <c r="W7">
-        <v>1565.5675</v>
+        <v>989.403</v>
       </c>
       <c r="X7">
-        <v>477.4026999999999</v>
+        <v>365.6199</v>
       </c>
       <c r="Y7">
-        <v>7749.328500000001</v>
+        <v>6235.089</v>
       </c>
       <c r="Z7">
-        <v>727.65108</v>
+        <v>663.9192999999999</v>
       </c>
       <c r="AA7">
-        <v>1034.3693</v>
+        <v>1016.508</v>
       </c>
       <c r="AB7">
-        <v>672.4248700000001</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC7">
-        <v>4302.3769</v>
+        <v>675.4623</v>
       </c>
       <c r="AD7">
-        <v>751.54691</v>
+        <v>676.3368</v>
       </c>
       <c r="AE7">
-        <v>611.1198200000001</v>
+        <v>580.4956000000001</v>
       </c>
       <c r="AF7">
-        <v>1429.1268</v>
+        <v>1206.188</v>
       </c>
       <c r="AG7">
-        <v>44955697</v>
+        <v>6295140</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1188,94 +1188,94 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>825279920</v>
+        <v>114652800</v>
       </c>
       <c r="E8">
-        <v>7.465594515595821E+39</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F8">
-        <v>307267.17</v>
+        <v>296579.64</v>
       </c>
       <c r="G8">
-        <v>274.72442</v>
+        <v>202.1615</v>
       </c>
       <c r="H8">
-        <v>264.7857</v>
+        <v>182.6628</v>
       </c>
       <c r="I8">
-        <v>6.4767765</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J8">
-        <v>411.6247500000001</v>
+        <v>333.2349</v>
       </c>
       <c r="K8">
-        <v>264.4202</v>
+        <v>182.09332</v>
       </c>
       <c r="L8">
-        <v>5106.4282</v>
+        <v>2471.14793</v>
       </c>
       <c r="M8">
-        <v>7047.939499999999</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N8">
-        <v>17753.318</v>
+        <v>11130.1399</v>
       </c>
       <c r="O8">
-        <v>266154850</v>
+        <v>54612870</v>
       </c>
       <c r="P8">
-        <v>161035627</v>
+        <v>39903570</v>
       </c>
       <c r="Q8">
-        <v>5201177.6</v>
+        <v>2187525.8</v>
       </c>
       <c r="R8">
-        <v>97040608</v>
+        <v>15044950</v>
       </c>
       <c r="S8">
-        <v>2277.724000000001</v>
+        <v>1827.8173</v>
       </c>
       <c r="T8">
-        <v>1739.5499</v>
+        <v>1059.864</v>
       </c>
       <c r="U8">
-        <v>17544857</v>
+        <v>5852675.4</v>
       </c>
       <c r="V8">
-        <v>34906433.1</v>
+        <v>3817087.2</v>
       </c>
       <c r="W8">
-        <v>1524.5898</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X8">
-        <v>465.2611099999999</v>
+        <v>365.6199</v>
       </c>
       <c r="Y8">
-        <v>7529.7304</v>
+        <v>5610.71234</v>
       </c>
       <c r="Z8">
-        <v>717.1932999999999</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA8">
-        <v>1014.97572</v>
+        <v>966.97662</v>
       </c>
       <c r="AB8">
-        <v>657.04396</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC8">
-        <v>3839.996700000001</v>
+        <v>675.4623</v>
       </c>
       <c r="AD8">
-        <v>709.67932</v>
+        <v>672.96225</v>
       </c>
       <c r="AE8">
-        <v>600.08606</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF8">
-        <v>1336.3247</v>
+        <v>1154.44646</v>
       </c>
       <c r="AG8">
-        <v>42156227</v>
+        <v>6294220</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1289,94 +1289,94 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>757776690</v>
+        <v>114652800</v>
       </c>
       <c r="E9">
-        <v>2.32107491958197E+37</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F9">
-        <v>295472.9</v>
+        <v>273295.76</v>
       </c>
       <c r="G9">
-        <v>257.38371</v>
+        <v>202.1615</v>
       </c>
       <c r="H9">
-        <v>245.14189</v>
+        <v>182.6628</v>
       </c>
       <c r="I9">
-        <v>5.6841698</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J9">
-        <v>400.8945</v>
+        <v>333.2349</v>
       </c>
       <c r="K9">
-        <v>245.29243</v>
+        <v>182.09332</v>
       </c>
       <c r="L9">
-        <v>3769.0449</v>
+        <v>2430.80543</v>
       </c>
       <c r="M9">
-        <v>6502.5959</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N9">
-        <v>14938.2789</v>
+        <v>9855.365600000001</v>
       </c>
       <c r="O9">
-        <v>249510760</v>
+        <v>54612870</v>
       </c>
       <c r="P9">
-        <v>135287807</v>
+        <v>39903570</v>
       </c>
       <c r="Q9">
-        <v>3851695.6</v>
+        <v>2179139.8</v>
       </c>
       <c r="R9">
-        <v>58785851</v>
+        <v>15044950</v>
       </c>
       <c r="S9">
-        <v>2064.6308</v>
+        <v>1826.8634</v>
       </c>
       <c r="T9">
-        <v>1663.4535</v>
+        <v>1059.864</v>
       </c>
       <c r="U9">
-        <v>13385376.8</v>
+        <v>4719459.5</v>
       </c>
       <c r="V9">
-        <v>23338070.4</v>
+        <v>3817087.2</v>
       </c>
       <c r="W9">
-        <v>1369.8434</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X9">
-        <v>453.65019</v>
+        <v>365.6199</v>
       </c>
       <c r="Y9">
-        <v>7194.669199999999</v>
+        <v>5610.71234</v>
       </c>
       <c r="Z9">
-        <v>692.3714499999999</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA9">
-        <v>962.6505000000001</v>
+        <v>952.10551</v>
       </c>
       <c r="AB9">
-        <v>637.5403699999999</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC9">
-        <v>3672.6213</v>
+        <v>675.4623</v>
       </c>
       <c r="AD9">
-        <v>700.87932</v>
+        <v>672.96225</v>
       </c>
       <c r="AE9">
-        <v>586.69025</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF9">
-        <v>1297.6093</v>
+        <v>1154.44646</v>
       </c>
       <c r="AG9">
-        <v>35077194</v>
+        <v>6294220</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1390,94 +1390,94 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>757776690</v>
+        <v>114652800</v>
       </c>
       <c r="E10">
-        <v>1.52936196958197E+37</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F10">
-        <v>270456.33</v>
+        <v>246341.39</v>
       </c>
       <c r="G10">
-        <v>257.38371</v>
+        <v>202.1615</v>
       </c>
       <c r="H10">
-        <v>237.09831</v>
+        <v>182.6628</v>
       </c>
       <c r="I10">
-        <v>5.6841698</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J10">
-        <v>400.8945</v>
+        <v>333.2349</v>
       </c>
       <c r="K10">
-        <v>244.1614</v>
+        <v>182.09332</v>
       </c>
       <c r="L10">
-        <v>3398.494100000001</v>
+        <v>2430.80543</v>
       </c>
       <c r="M10">
-        <v>6352.8177</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N10">
-        <v>12272.4503</v>
+        <v>8561.664699999999</v>
       </c>
       <c r="O10">
-        <v>245395580</v>
+        <v>54612870</v>
       </c>
       <c r="P10">
-        <v>134342167</v>
+        <v>39903570</v>
       </c>
       <c r="Q10">
-        <v>2609561.1</v>
+        <v>2092580.9</v>
       </c>
       <c r="R10">
-        <v>56355637</v>
+        <v>15044950</v>
       </c>
       <c r="S10">
-        <v>2006.7547</v>
+        <v>1826.8634</v>
       </c>
       <c r="T10">
-        <v>1571.7917</v>
+        <v>1059.864</v>
       </c>
       <c r="U10">
-        <v>7527274.2</v>
+        <v>4719459.5</v>
       </c>
       <c r="V10">
-        <v>21417729.4</v>
+        <v>3817087.2</v>
       </c>
       <c r="W10">
-        <v>1310.9315</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X10">
-        <v>448.1605900000001</v>
+        <v>365.6199</v>
       </c>
       <c r="Y10">
-        <v>6948.3651</v>
+        <v>5171.927839999999</v>
       </c>
       <c r="Z10">
-        <v>691.73451</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA10">
-        <v>945.9450599999998</v>
+        <v>951.57006</v>
       </c>
       <c r="AB10">
-        <v>637.5403699999999</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC10">
-        <v>3122.802999999999</v>
+        <v>675.4623</v>
       </c>
       <c r="AD10">
-        <v>700.87932</v>
+        <v>672.96225</v>
       </c>
       <c r="AE10">
-        <v>583.5943100000001</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF10">
-        <v>1281.6377</v>
+        <v>1149.16696</v>
       </c>
       <c r="AG10">
-        <v>28914106</v>
+        <v>6294220</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1491,94 +1491,94 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>722738630</v>
+        <v>114652800</v>
       </c>
       <c r="E11">
-        <v>1.50582322558197E+37</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F11">
-        <v>261158.07</v>
+        <v>236482.27</v>
       </c>
       <c r="G11">
-        <v>256.71064</v>
+        <v>202.1615</v>
       </c>
       <c r="H11">
-        <v>234.51136</v>
+        <v>182.6628</v>
       </c>
       <c r="I11">
-        <v>5.6032344</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J11">
-        <v>400.43625</v>
+        <v>333.2349</v>
       </c>
       <c r="K11">
-        <v>237.82664</v>
+        <v>182.09332</v>
       </c>
       <c r="L11">
-        <v>2787.2859</v>
+        <v>2430.80543</v>
       </c>
       <c r="M11">
-        <v>6323.1866</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N11">
-        <v>10097.3718</v>
+        <v>7763.1494</v>
       </c>
       <c r="O11">
-        <v>224757310</v>
+        <v>54612870</v>
       </c>
       <c r="P11">
-        <v>132064667</v>
+        <v>39903570</v>
       </c>
       <c r="Q11">
-        <v>2328114.7</v>
+        <v>2057488</v>
       </c>
       <c r="R11">
-        <v>50130353</v>
+        <v>15044950</v>
       </c>
       <c r="S11">
-        <v>1877.883</v>
+        <v>1826.8634</v>
       </c>
       <c r="T11">
-        <v>1564.508</v>
+        <v>1059.864</v>
       </c>
       <c r="U11">
-        <v>5658772</v>
+        <v>4719459.5</v>
       </c>
       <c r="V11">
-        <v>21417729.4</v>
+        <v>3817087.2</v>
       </c>
       <c r="W11">
-        <v>1286.7017</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X11">
-        <v>442.01554</v>
+        <v>365.6199</v>
       </c>
       <c r="Y11">
-        <v>6273.02781</v>
+        <v>5171.927839999999</v>
       </c>
       <c r="Z11">
-        <v>685.24421</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA11">
-        <v>928.5811799999999</v>
+        <v>951.57006</v>
       </c>
       <c r="AB11">
-        <v>633.11427</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC11">
-        <v>2979.3406</v>
+        <v>675.4623</v>
       </c>
       <c r="AD11">
-        <v>696.8018500000001</v>
+        <v>672.96225</v>
       </c>
       <c r="AE11">
-        <v>583.5943100000001</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF11">
-        <v>1209.8941</v>
+        <v>1149.16696</v>
       </c>
       <c r="AG11">
-        <v>25404264</v>
+        <v>6294220</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1592,94 +1592,94 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>722738630</v>
+        <v>114652800</v>
       </c>
       <c r="E12">
-        <v>1.50582322558197E+37</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F12">
-        <v>259079.52</v>
+        <v>220907.83</v>
       </c>
       <c r="G12">
-        <v>256.71064</v>
+        <v>202.1615</v>
       </c>
       <c r="H12">
-        <v>234.51136</v>
+        <v>182.6628</v>
       </c>
       <c r="I12">
-        <v>5.6032344</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J12">
-        <v>400.43625</v>
+        <v>333.2349</v>
       </c>
       <c r="K12">
-        <v>237.82664</v>
+        <v>182.09332</v>
       </c>
       <c r="L12">
-        <v>2787.2859</v>
+        <v>2430.80543</v>
       </c>
       <c r="M12">
-        <v>6323.1866</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N12">
-        <v>9885.7058</v>
+        <v>7341.2287</v>
       </c>
       <c r="O12">
-        <v>224757310</v>
+        <v>54612870</v>
       </c>
       <c r="P12">
-        <v>132064667</v>
+        <v>39903570</v>
       </c>
       <c r="Q12">
-        <v>1945964.3</v>
+        <v>2057488</v>
       </c>
       <c r="R12">
-        <v>50130353</v>
+        <v>15044950</v>
       </c>
       <c r="S12">
-        <v>1877.883</v>
+        <v>1826.8634</v>
       </c>
       <c r="T12">
-        <v>1562.4607</v>
+        <v>1059.864</v>
       </c>
       <c r="U12">
-        <v>5071237.1</v>
+        <v>4719459.5</v>
       </c>
       <c r="V12">
-        <v>21417729.4</v>
+        <v>3817087.2</v>
       </c>
       <c r="W12">
-        <v>1267.9383</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X12">
-        <v>442.01554</v>
+        <v>365.6199</v>
       </c>
       <c r="Y12">
-        <v>6273.02781</v>
+        <v>5171.927839999999</v>
       </c>
       <c r="Z12">
-        <v>685.24421</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA12">
-        <v>928.5811799999999</v>
+        <v>951.57006</v>
       </c>
       <c r="AB12">
-        <v>633.11427</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC12">
-        <v>2460.7177</v>
+        <v>675.4623</v>
       </c>
       <c r="AD12">
-        <v>696.8018500000001</v>
+        <v>672.96225</v>
       </c>
       <c r="AE12">
-        <v>583.5943100000001</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF12">
-        <v>1209.8941</v>
+        <v>1149.16696</v>
       </c>
       <c r="AG12">
-        <v>25404264</v>
+        <v>6294220</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1693,94 +1693,94 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>722738630</v>
+        <v>114652800</v>
       </c>
       <c r="E13">
-        <v>1.50582322558197E+37</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F13">
-        <v>255368.06</v>
+        <v>211635.41</v>
       </c>
       <c r="G13">
-        <v>256.71064</v>
+        <v>202.1615</v>
       </c>
       <c r="H13">
-        <v>232.32033</v>
+        <v>182.6628</v>
       </c>
       <c r="I13">
-        <v>5.5934282</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J13">
-        <v>400.43625</v>
+        <v>333.2349</v>
       </c>
       <c r="K13">
-        <v>236.36674</v>
+        <v>182.09332</v>
       </c>
       <c r="L13">
-        <v>2647.5046</v>
+        <v>2430.80543</v>
       </c>
       <c r="M13">
-        <v>6323.1866</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N13">
-        <v>9468.620800000001</v>
+        <v>7155.8754</v>
       </c>
       <c r="O13">
-        <v>224757310</v>
+        <v>54612870</v>
       </c>
       <c r="P13">
-        <v>132064667</v>
+        <v>39903570</v>
       </c>
       <c r="Q13">
-        <v>1867839.8</v>
+        <v>2057488</v>
       </c>
       <c r="R13">
-        <v>46517606</v>
+        <v>15044950</v>
       </c>
       <c r="S13">
-        <v>1866.2642</v>
+        <v>1826.8634</v>
       </c>
       <c r="T13">
-        <v>1562.4607</v>
+        <v>1059.864</v>
       </c>
       <c r="U13">
-        <v>4438071.1</v>
+        <v>4719459.5</v>
       </c>
       <c r="V13">
-        <v>20129062.4</v>
+        <v>3817087.2</v>
       </c>
       <c r="W13">
-        <v>1232.3626</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X13">
-        <v>442.01554</v>
+        <v>365.6199</v>
       </c>
       <c r="Y13">
-        <v>6273.02781</v>
+        <v>5171.927839999999</v>
       </c>
       <c r="Z13">
-        <v>685.24421</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA13">
-        <v>926.32037</v>
+        <v>951.57006</v>
       </c>
       <c r="AB13">
-        <v>633.11427</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC13">
-        <v>2460.7177</v>
+        <v>675.4623</v>
       </c>
       <c r="AD13">
-        <v>696.8018500000001</v>
+        <v>672.96225</v>
       </c>
       <c r="AE13">
-        <v>583.5943100000001</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF13">
-        <v>1209.8941</v>
+        <v>1149.16696</v>
       </c>
       <c r="AG13">
-        <v>25404264</v>
+        <v>6294220</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1794,94 +1794,94 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>722738630</v>
+        <v>114652800</v>
       </c>
       <c r="E14">
-        <v>1.50582322558197E+37</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F14">
-        <v>245197.07</v>
+        <v>208010.4</v>
       </c>
       <c r="G14">
-        <v>256.71064</v>
+        <v>202.1615</v>
       </c>
       <c r="H14">
-        <v>232.32033</v>
+        <v>182.6628</v>
       </c>
       <c r="I14">
-        <v>5.5934282</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J14">
-        <v>400.43625</v>
+        <v>333.2349</v>
       </c>
       <c r="K14">
-        <v>236.36674</v>
+        <v>182.09332</v>
       </c>
       <c r="L14">
-        <v>2647.5046</v>
+        <v>2430.80543</v>
       </c>
       <c r="M14">
-        <v>6323.1866</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N14">
-        <v>8944.123100000001</v>
+        <v>7103.756599999999</v>
       </c>
       <c r="O14">
-        <v>224757310</v>
+        <v>54612870</v>
       </c>
       <c r="P14">
-        <v>132064667</v>
+        <v>39903570</v>
       </c>
       <c r="Q14">
-        <v>1867839.8</v>
+        <v>2057488</v>
       </c>
       <c r="R14">
-        <v>46517606</v>
+        <v>15044950</v>
       </c>
       <c r="S14">
-        <v>1866.2642</v>
+        <v>1826.8634</v>
       </c>
       <c r="T14">
-        <v>1562.4607</v>
+        <v>1059.864</v>
       </c>
       <c r="U14">
-        <v>4438055.3</v>
+        <v>4719459.5</v>
       </c>
       <c r="V14">
-        <v>20129062.4</v>
+        <v>3817087.2</v>
       </c>
       <c r="W14">
-        <v>1232.1046</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X14">
-        <v>442.01554</v>
+        <v>365.6199</v>
       </c>
       <c r="Y14">
-        <v>5046.09661</v>
+        <v>5171.927839999999</v>
       </c>
       <c r="Z14">
-        <v>685.24421</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA14">
-        <v>926.32037</v>
+        <v>951.57006</v>
       </c>
       <c r="AB14">
-        <v>633.11427</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC14">
-        <v>2401.5648</v>
+        <v>675.4623</v>
       </c>
       <c r="AD14">
-        <v>696.8018500000001</v>
+        <v>672.96225</v>
       </c>
       <c r="AE14">
-        <v>583.5943100000001</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF14">
-        <v>1209.8941</v>
+        <v>1149.16696</v>
       </c>
       <c r="AG14">
-        <v>25404264</v>
+        <v>6294220</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1895,94 +1895,94 @@
         <v>50</v>
       </c>
       <c r="D15">
-        <v>722738630</v>
+        <v>114652800</v>
       </c>
       <c r="E15">
-        <v>1.50582322558197E+37</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F15">
-        <v>244516.7</v>
+        <v>203148.13</v>
       </c>
       <c r="G15">
-        <v>256.71064</v>
+        <v>202.1615</v>
       </c>
       <c r="H15">
-        <v>232.32033</v>
+        <v>182.6628</v>
       </c>
       <c r="I15">
-        <v>5.5934282</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J15">
-        <v>400.43625</v>
+        <v>333.2349</v>
       </c>
       <c r="K15">
-        <v>236.36674</v>
+        <v>182.09332</v>
       </c>
       <c r="L15">
-        <v>2647.5046</v>
+        <v>2430.80543</v>
       </c>
       <c r="M15">
-        <v>6323.1866</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N15">
-        <v>8944.123100000001</v>
+        <v>7103.756599999999</v>
       </c>
       <c r="O15">
-        <v>224757310</v>
+        <v>54612870</v>
       </c>
       <c r="P15">
-        <v>132064667</v>
+        <v>39903570</v>
       </c>
       <c r="Q15">
-        <v>1867839.8</v>
+        <v>2057488</v>
       </c>
       <c r="R15">
-        <v>46092851</v>
+        <v>15044950</v>
       </c>
       <c r="S15">
-        <v>1866.2642</v>
+        <v>1826.8634</v>
       </c>
       <c r="T15">
-        <v>1544.6398</v>
+        <v>1059.864</v>
       </c>
       <c r="U15">
-        <v>4350466.9</v>
+        <v>4719459.5</v>
       </c>
       <c r="V15">
-        <v>20129062.4</v>
+        <v>3817087.2</v>
       </c>
       <c r="W15">
-        <v>1206.55149</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X15">
-        <v>442.01554</v>
+        <v>365.6199</v>
       </c>
       <c r="Y15">
-        <v>5046.09661</v>
+        <v>5171.927839999999</v>
       </c>
       <c r="Z15">
-        <v>685.24421</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA15">
-        <v>926.32037</v>
+        <v>951.57006</v>
       </c>
       <c r="AB15">
-        <v>633.11427</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC15">
-        <v>2401.5648</v>
+        <v>675.4623</v>
       </c>
       <c r="AD15">
-        <v>696.8018500000001</v>
+        <v>672.96225</v>
       </c>
       <c r="AE15">
-        <v>583.5943100000001</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF15">
-        <v>1209.8941</v>
+        <v>1149.16696</v>
       </c>
       <c r="AG15">
-        <v>25404264</v>
+        <v>6294220</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -1996,94 +1996,94 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>722738630</v>
+        <v>114652800</v>
       </c>
       <c r="E16">
-        <v>1.50582322558197E+37</v>
+        <v>4.776101909999999E+33</v>
       </c>
       <c r="F16">
-        <v>241638.15</v>
+        <v>203148.13</v>
       </c>
       <c r="G16">
-        <v>256.71064</v>
+        <v>202.1615</v>
       </c>
       <c r="H16">
-        <v>232.32033</v>
+        <v>182.6628</v>
       </c>
       <c r="I16">
-        <v>5.5934282</v>
+        <v>2.846858999999999</v>
       </c>
       <c r="J16">
-        <v>400.43625</v>
+        <v>333.2349</v>
       </c>
       <c r="K16">
-        <v>236.36674</v>
+        <v>182.09332</v>
       </c>
       <c r="L16">
-        <v>2647.5046</v>
+        <v>2430.80543</v>
       </c>
       <c r="M16">
-        <v>6323.1866</v>
+        <v>4733.900999999999</v>
       </c>
       <c r="N16">
-        <v>8677.079600000001</v>
+        <v>6979.599099999999</v>
       </c>
       <c r="O16">
-        <v>224757310</v>
+        <v>54612870</v>
       </c>
       <c r="P16">
-        <v>132064667</v>
+        <v>39903570</v>
       </c>
       <c r="Q16">
-        <v>1867839.8</v>
+        <v>2057488</v>
       </c>
       <c r="R16">
-        <v>46092851</v>
+        <v>15044950</v>
       </c>
       <c r="S16">
-        <v>1866.2642</v>
+        <v>1826.8634</v>
       </c>
       <c r="T16">
-        <v>1528.1358</v>
+        <v>1059.864</v>
       </c>
       <c r="U16">
-        <v>4202483.8</v>
+        <v>4719459.5</v>
       </c>
       <c r="V16">
-        <v>18790729.1</v>
+        <v>3817087.2</v>
       </c>
       <c r="W16">
-        <v>1151.5489</v>
+        <v>973.6428100000001</v>
       </c>
       <c r="X16">
-        <v>442.01554</v>
+        <v>365.6199</v>
       </c>
       <c r="Y16">
-        <v>4942.148209999999</v>
+        <v>5171.927839999999</v>
       </c>
       <c r="Z16">
-        <v>685.24421</v>
+        <v>655.8767599999999</v>
       </c>
       <c r="AA16">
-        <v>926.32037</v>
+        <v>951.57006</v>
       </c>
       <c r="AB16">
-        <v>633.11427</v>
+        <v>590.7700999999998</v>
       </c>
       <c r="AC16">
-        <v>1952.6404</v>
+        <v>675.4623</v>
       </c>
       <c r="AD16">
-        <v>696.8018500000001</v>
+        <v>672.96225</v>
       </c>
       <c r="AE16">
-        <v>583.5943100000001</v>
+        <v>574.7490600000001</v>
       </c>
       <c r="AF16">
-        <v>1199.7691</v>
+        <v>1149.16696</v>
       </c>
       <c r="AG16">
-        <v>25404264</v>
+        <v>6294220</v>
       </c>
     </row>
   </sheetData>

--- a/code/results_cellsMejorado/results_cec2017_50.xlsx
+++ b/code/results_cellsMejorado/results_cec2017_50.xlsx
@@ -582,94 +582,94 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>53970570</v>
+        <v>47581786</v>
       </c>
       <c r="E2">
-        <v>3.2948728047E+17</v>
+        <v>7.659198175E+16</v>
       </c>
       <c r="F2">
-        <v>99329.14400000001</v>
+        <v>98410.14599999999</v>
       </c>
       <c r="G2">
-        <v>122.374085</v>
+        <v>112.73258</v>
       </c>
       <c r="H2">
-        <v>104.117558</v>
+        <v>88.67249200000001</v>
       </c>
       <c r="I2">
-        <v>3.0571443</v>
+        <v>2.824631</v>
       </c>
       <c r="J2">
-        <v>163.02185</v>
+        <v>161.83235</v>
       </c>
       <c r="K2">
-        <v>97.26479600000002</v>
+        <v>92.32836</v>
       </c>
       <c r="L2">
-        <v>679.5418699999999</v>
+        <v>605.3372400000001</v>
       </c>
       <c r="M2">
         <v>2073.373</v>
       </c>
       <c r="N2">
-        <v>971.2873900000002</v>
+        <v>674.1830200000001</v>
       </c>
       <c r="O2">
-        <v>15257617</v>
+        <v>12001323.8</v>
       </c>
       <c r="P2">
-        <v>13178608.2</v>
+        <v>10937070</v>
       </c>
       <c r="Q2">
-        <v>420582.96</v>
+        <v>341142.92</v>
       </c>
       <c r="R2">
-        <v>886926.5</v>
+        <v>806677.05</v>
       </c>
       <c r="S2">
-        <v>1000.75866</v>
+        <v>926.8163900000002</v>
       </c>
       <c r="T2">
-        <v>364.44744</v>
+        <v>362.9141599999999</v>
       </c>
       <c r="U2">
-        <v>946312.39</v>
+        <v>671618.5699999999</v>
       </c>
       <c r="V2">
-        <v>3208129.2</v>
+        <v>2568815</v>
       </c>
       <c r="W2">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X2">
-        <v>290.79679</v>
+        <v>235.40831</v>
       </c>
       <c r="Y2">
-        <v>138.059</v>
+        <v>137.92548</v>
       </c>
       <c r="Z2">
-        <v>448.4875700000001</v>
+        <v>431.4088300000001</v>
       </c>
       <c r="AA2">
-        <v>582.3182499999999</v>
+        <v>487.85666</v>
       </c>
       <c r="AB2">
-        <v>417.4791099999999</v>
+        <v>412.1944500000001</v>
       </c>
       <c r="AC2">
-        <v>457.4340000000001</v>
+        <v>435.8708300000001</v>
       </c>
       <c r="AD2">
-        <v>534.4594</v>
+        <v>529.1650100000001</v>
       </c>
       <c r="AE2">
-        <v>456.3332</v>
+        <v>455.38336</v>
       </c>
       <c r="AF2">
-        <v>596.3193600000001</v>
+        <v>596.3608600000001</v>
       </c>
       <c r="AG2">
-        <v>1562346.35</v>
+        <v>1430768.39</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1191,10 +1191,10 @@
         <v>114652800</v>
       </c>
       <c r="E8">
-        <v>4.776101909999999E+33</v>
+        <v>5.558730999999999E+33</v>
       </c>
       <c r="F8">
-        <v>296579.64</v>
+        <v>280411.56</v>
       </c>
       <c r="G8">
         <v>202.1615</v>
@@ -1209,16 +1209,16 @@
         <v>333.2349</v>
       </c>
       <c r="K8">
-        <v>182.09332</v>
+        <v>182.8834</v>
       </c>
       <c r="L8">
-        <v>2471.14793</v>
+        <v>3100.458</v>
       </c>
       <c r="M8">
         <v>4733.900999999999</v>
       </c>
       <c r="N8">
-        <v>11130.1399</v>
+        <v>11695.2781</v>
       </c>
       <c r="O8">
         <v>54612870</v>
@@ -1227,37 +1227,37 @@
         <v>39903570</v>
       </c>
       <c r="Q8">
-        <v>2187525.8</v>
+        <v>2113416.6</v>
       </c>
       <c r="R8">
         <v>15044950</v>
       </c>
       <c r="S8">
-        <v>1827.8173</v>
+        <v>1838.411</v>
       </c>
       <c r="T8">
         <v>1059.864</v>
       </c>
       <c r="U8">
-        <v>5852675.4</v>
+        <v>7205222.5</v>
       </c>
       <c r="V8">
-        <v>3817087.2</v>
+        <v>3836012</v>
       </c>
       <c r="W8">
-        <v>973.6428100000001</v>
+        <v>989.403</v>
       </c>
       <c r="X8">
         <v>365.6199</v>
       </c>
       <c r="Y8">
-        <v>5610.71234</v>
+        <v>5662.52168</v>
       </c>
       <c r="Z8">
-        <v>655.8767599999999</v>
+        <v>663.9192999999999</v>
       </c>
       <c r="AA8">
-        <v>966.97662</v>
+        <v>978.51456</v>
       </c>
       <c r="AB8">
         <v>590.7700999999998</v>
@@ -1266,13 +1266,13 @@
         <v>675.4623</v>
       </c>
       <c r="AD8">
-        <v>672.96225</v>
+        <v>676.3368</v>
       </c>
       <c r="AE8">
-        <v>574.7490600000001</v>
+        <v>580.4956000000001</v>
       </c>
       <c r="AF8">
-        <v>1154.44646</v>
+        <v>1206.188</v>
       </c>
       <c r="AG8">
         <v>6294220</v>
@@ -1292,10 +1292,10 @@
         <v>114652800</v>
       </c>
       <c r="E9">
-        <v>4.776101909999999E+33</v>
+        <v>5.558730999999999E+33</v>
       </c>
       <c r="F9">
-        <v>273295.76</v>
+        <v>264563.27</v>
       </c>
       <c r="G9">
         <v>202.1615</v>
@@ -1310,16 +1310,16 @@
         <v>333.2349</v>
       </c>
       <c r="K9">
-        <v>182.09332</v>
+        <v>182.8834</v>
       </c>
       <c r="L9">
-        <v>2430.80543</v>
+        <v>3100.458</v>
       </c>
       <c r="M9">
         <v>4733.900999999999</v>
       </c>
       <c r="N9">
-        <v>9855.365600000001</v>
+        <v>11212.5951</v>
       </c>
       <c r="O9">
         <v>54612870</v>
@@ -1328,37 +1328,37 @@
         <v>39903570</v>
       </c>
       <c r="Q9">
-        <v>2179139.8</v>
+        <v>2015966.7</v>
       </c>
       <c r="R9">
         <v>15044950</v>
       </c>
       <c r="S9">
-        <v>1826.8634</v>
+        <v>1838.411</v>
       </c>
       <c r="T9">
         <v>1059.864</v>
       </c>
       <c r="U9">
-        <v>4719459.5</v>
+        <v>6741318.7</v>
       </c>
       <c r="V9">
-        <v>3817087.2</v>
+        <v>3836012</v>
       </c>
       <c r="W9">
-        <v>973.6428100000001</v>
+        <v>989.403</v>
       </c>
       <c r="X9">
         <v>365.6199</v>
       </c>
       <c r="Y9">
-        <v>5610.71234</v>
+        <v>4910.56018</v>
       </c>
       <c r="Z9">
-        <v>655.8767599999999</v>
+        <v>663.9192999999999</v>
       </c>
       <c r="AA9">
-        <v>952.10551</v>
+        <v>978.51456</v>
       </c>
       <c r="AB9">
         <v>590.7700999999998</v>
@@ -1367,13 +1367,13 @@
         <v>675.4623</v>
       </c>
       <c r="AD9">
-        <v>672.96225</v>
+        <v>676.3368</v>
       </c>
       <c r="AE9">
-        <v>574.7490600000001</v>
+        <v>580.4956000000001</v>
       </c>
       <c r="AF9">
-        <v>1154.44646</v>
+        <v>1206.188</v>
       </c>
       <c r="AG9">
         <v>6294220</v>
@@ -1393,10 +1393,10 @@
         <v>114652800</v>
       </c>
       <c r="E10">
-        <v>4.776101909999999E+33</v>
+        <v>5.558730999999999E+33</v>
       </c>
       <c r="F10">
-        <v>246341.39</v>
+        <v>239621</v>
       </c>
       <c r="G10">
         <v>202.1615</v>
@@ -1411,16 +1411,16 @@
         <v>333.2349</v>
       </c>
       <c r="K10">
-        <v>182.09332</v>
+        <v>182.8834</v>
       </c>
       <c r="L10">
-        <v>2430.80543</v>
+        <v>3100.458</v>
       </c>
       <c r="M10">
         <v>4733.900999999999</v>
       </c>
       <c r="N10">
-        <v>8561.664699999999</v>
+        <v>9573.6574</v>
       </c>
       <c r="O10">
         <v>54612870</v>
@@ -1429,37 +1429,37 @@
         <v>39903570</v>
       </c>
       <c r="Q10">
-        <v>2092580.9</v>
+        <v>2015966.7</v>
       </c>
       <c r="R10">
         <v>15044950</v>
       </c>
       <c r="S10">
-        <v>1826.8634</v>
+        <v>1838.411</v>
       </c>
       <c r="T10">
         <v>1059.864</v>
       </c>
       <c r="U10">
-        <v>4719459.5</v>
+        <v>6741318.7</v>
       </c>
       <c r="V10">
-        <v>3817087.2</v>
+        <v>3836012</v>
       </c>
       <c r="W10">
-        <v>973.6428100000001</v>
+        <v>989.403</v>
       </c>
       <c r="X10">
         <v>365.6199</v>
       </c>
       <c r="Y10">
-        <v>5171.927839999999</v>
+        <v>4910.56018</v>
       </c>
       <c r="Z10">
-        <v>655.8767599999999</v>
+        <v>663.9192999999999</v>
       </c>
       <c r="AA10">
-        <v>951.57006</v>
+        <v>978.51456</v>
       </c>
       <c r="AB10">
         <v>590.7700999999998</v>
@@ -1468,13 +1468,13 @@
         <v>675.4623</v>
       </c>
       <c r="AD10">
-        <v>672.96225</v>
+        <v>676.3368</v>
       </c>
       <c r="AE10">
-        <v>574.7490600000001</v>
+        <v>580.4956000000001</v>
       </c>
       <c r="AF10">
-        <v>1149.16696</v>
+        <v>1206.188</v>
       </c>
       <c r="AG10">
         <v>6294220</v>
@@ -1494,10 +1494,10 @@
         <v>114652800</v>
       </c>
       <c r="E11">
-        <v>4.776101909999999E+33</v>
+        <v>5.558730999999999E+33</v>
       </c>
       <c r="F11">
-        <v>236482.27</v>
+        <v>236905.83</v>
       </c>
       <c r="G11">
         <v>202.1615</v>
@@ -1512,16 +1512,16 @@
         <v>333.2349</v>
       </c>
       <c r="K11">
-        <v>182.09332</v>
+        <v>182.8834</v>
       </c>
       <c r="L11">
-        <v>2430.80543</v>
+        <v>3100.458</v>
       </c>
       <c r="M11">
         <v>4733.900999999999</v>
       </c>
       <c r="N11">
-        <v>7763.1494</v>
+        <v>9076.279100000002</v>
       </c>
       <c r="O11">
         <v>54612870</v>
@@ -1530,37 +1530,37 @@
         <v>39903570</v>
       </c>
       <c r="Q11">
-        <v>2057488</v>
+        <v>2015966.7</v>
       </c>
       <c r="R11">
         <v>15044950</v>
       </c>
       <c r="S11">
-        <v>1826.8634</v>
+        <v>1838.411</v>
       </c>
       <c r="T11">
         <v>1059.864</v>
       </c>
       <c r="U11">
-        <v>4719459.5</v>
+        <v>6166488.2</v>
       </c>
       <c r="V11">
-        <v>3817087.2</v>
+        <v>3836012</v>
       </c>
       <c r="W11">
-        <v>973.6428100000001</v>
+        <v>989.403</v>
       </c>
       <c r="X11">
         <v>365.6199</v>
       </c>
       <c r="Y11">
-        <v>5171.927839999999</v>
+        <v>4008.99108</v>
       </c>
       <c r="Z11">
-        <v>655.8767599999999</v>
+        <v>663.9192999999999</v>
       </c>
       <c r="AA11">
-        <v>951.57006</v>
+        <v>976.43462</v>
       </c>
       <c r="AB11">
         <v>590.7700999999998</v>
@@ -1569,13 +1569,13 @@
         <v>675.4623</v>
       </c>
       <c r="AD11">
-        <v>672.96225</v>
+        <v>676.3368</v>
       </c>
       <c r="AE11">
-        <v>574.7490600000001</v>
+        <v>580.4956000000001</v>
       </c>
       <c r="AF11">
-        <v>1149.16696</v>
+        <v>1206.188</v>
       </c>
       <c r="AG11">
         <v>6294220</v>
@@ -1595,10 +1595,10 @@
         <v>114652800</v>
       </c>
       <c r="E12">
-        <v>4.776101909999999E+33</v>
+        <v>5.558730999999999E+33</v>
       </c>
       <c r="F12">
-        <v>220907.83</v>
+        <v>236480.89</v>
       </c>
       <c r="G12">
         <v>202.1615</v>
@@ -1613,16 +1613,16 @@
         <v>333.2349</v>
       </c>
       <c r="K12">
-        <v>182.09332</v>
+        <v>182.8834</v>
       </c>
       <c r="L12">
-        <v>2430.80543</v>
+        <v>3100.458</v>
       </c>
       <c r="M12">
         <v>4733.900999999999</v>
       </c>
       <c r="N12">
-        <v>7341.2287</v>
+        <v>8416.257300000001</v>
       </c>
       <c r="O12">
         <v>54612870</v>
@@ -1631,37 +1631,37 @@
         <v>39903570</v>
       </c>
       <c r="Q12">
-        <v>2057488</v>
+        <v>1921455.9</v>
       </c>
       <c r="R12">
         <v>15044950</v>
       </c>
       <c r="S12">
-        <v>1826.8634</v>
+        <v>1819.4956</v>
       </c>
       <c r="T12">
         <v>1059.864</v>
       </c>
       <c r="U12">
-        <v>4719459.5</v>
+        <v>5214730.1</v>
       </c>
       <c r="V12">
-        <v>3817087.2</v>
+        <v>3836012</v>
       </c>
       <c r="W12">
-        <v>973.6428100000001</v>
+        <v>989.403</v>
       </c>
       <c r="X12">
         <v>365.6199</v>
       </c>
       <c r="Y12">
-        <v>5171.927839999999</v>
+        <v>3587.46256</v>
       </c>
       <c r="Z12">
-        <v>655.8767599999999</v>
+        <v>663.9192999999999</v>
       </c>
       <c r="AA12">
-        <v>951.57006</v>
+        <v>903.9343700000002</v>
       </c>
       <c r="AB12">
         <v>590.7700999999998</v>
@@ -1670,13 +1670,13 @@
         <v>675.4623</v>
       </c>
       <c r="AD12">
-        <v>672.96225</v>
+        <v>676.3368</v>
       </c>
       <c r="AE12">
-        <v>574.7490600000001</v>
+        <v>580.4956000000001</v>
       </c>
       <c r="AF12">
-        <v>1149.16696</v>
+        <v>1206.188</v>
       </c>
       <c r="AG12">
         <v>6294220</v>
@@ -1693,94 +1693,94 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>114652800</v>
+        <v>111761284</v>
       </c>
       <c r="E13">
-        <v>4.776101909999999E+33</v>
+        <v>1.6711920111E+33</v>
       </c>
       <c r="F13">
-        <v>211635.41</v>
+        <v>235553.25</v>
       </c>
       <c r="G13">
-        <v>202.1615</v>
+        <v>197.37062</v>
       </c>
       <c r="H13">
-        <v>182.6628</v>
+        <v>175.53091</v>
       </c>
       <c r="I13">
-        <v>2.846858999999999</v>
+        <v>2.758668399999999</v>
       </c>
       <c r="J13">
-        <v>333.2349</v>
+        <v>331.08014</v>
       </c>
       <c r="K13">
-        <v>182.09332</v>
+        <v>180.96006</v>
       </c>
       <c r="L13">
-        <v>2430.80543</v>
+        <v>2625.8588</v>
       </c>
       <c r="M13">
-        <v>4733.900999999999</v>
+        <v>4665.486699999999</v>
       </c>
       <c r="N13">
-        <v>7155.8754</v>
+        <v>7983.290800000001</v>
       </c>
       <c r="O13">
         <v>54612870</v>
       </c>
       <c r="P13">
-        <v>39903570</v>
+        <v>36416575</v>
       </c>
       <c r="Q13">
-        <v>2057488</v>
+        <v>1623518.27</v>
       </c>
       <c r="R13">
-        <v>15044950</v>
+        <v>13321995.4</v>
       </c>
       <c r="S13">
-        <v>1826.8634</v>
+        <v>1672.1433</v>
       </c>
       <c r="T13">
-        <v>1059.864</v>
+        <v>1058.3597</v>
       </c>
       <c r="U13">
-        <v>4719459.5</v>
+        <v>4430352.3</v>
       </c>
       <c r="V13">
-        <v>3817087.2</v>
+        <v>3208229.3</v>
       </c>
       <c r="W13">
-        <v>973.6428100000001</v>
+        <v>917.7919400000003</v>
       </c>
       <c r="X13">
-        <v>365.6199</v>
+        <v>358.71803</v>
       </c>
       <c r="Y13">
-        <v>5171.927839999999</v>
+        <v>3495.68726</v>
       </c>
       <c r="Z13">
-        <v>655.8767599999999</v>
+        <v>633.8246099999999</v>
       </c>
       <c r="AA13">
-        <v>951.57006</v>
+        <v>853.6375100000001</v>
       </c>
       <c r="AB13">
-        <v>590.7700999999998</v>
+        <v>590.6744499999999</v>
       </c>
       <c r="AC13">
         <v>675.4623</v>
       </c>
       <c r="AD13">
-        <v>672.96225</v>
+        <v>675.30388</v>
       </c>
       <c r="AE13">
-        <v>574.7490600000001</v>
+        <v>577.7359800000002</v>
       </c>
       <c r="AF13">
-        <v>1149.16696</v>
+        <v>1071.02674</v>
       </c>
       <c r="AG13">
-        <v>6294220</v>
+        <v>5918022.4</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1794,94 +1794,94 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>114652800</v>
+        <v>110689095</v>
       </c>
       <c r="E14">
-        <v>4.776101909999999E+33</v>
+        <v>1.6701241011E+33</v>
       </c>
       <c r="F14">
-        <v>208010.4</v>
+        <v>232143.07</v>
       </c>
       <c r="G14">
-        <v>202.1615</v>
+        <v>196.99525</v>
       </c>
       <c r="H14">
-        <v>182.6628</v>
+        <v>174.98017</v>
       </c>
       <c r="I14">
-        <v>2.846858999999999</v>
+        <v>2.755107699999999</v>
       </c>
       <c r="J14">
-        <v>333.2349</v>
+        <v>330.4109999999999</v>
       </c>
       <c r="K14">
-        <v>182.09332</v>
+        <v>180.96006</v>
       </c>
       <c r="L14">
-        <v>2430.80543</v>
+        <v>2479.0088</v>
       </c>
       <c r="M14">
-        <v>4733.900999999999</v>
+        <v>4651.266399999999</v>
       </c>
       <c r="N14">
-        <v>7103.756599999999</v>
+        <v>7980.702500000001</v>
       </c>
       <c r="O14">
         <v>54612870</v>
       </c>
       <c r="P14">
-        <v>39903570</v>
+        <v>32233928.5</v>
       </c>
       <c r="Q14">
-        <v>2057488</v>
+        <v>1615669.87</v>
       </c>
       <c r="R14">
-        <v>15044950</v>
+        <v>13321995.4</v>
       </c>
       <c r="S14">
-        <v>1826.8634</v>
+        <v>1671.8404</v>
       </c>
       <c r="T14">
-        <v>1059.864</v>
+        <v>1058.2745</v>
       </c>
       <c r="U14">
-        <v>4719459.5</v>
+        <v>4282734.4</v>
       </c>
       <c r="V14">
-        <v>3817087.2</v>
+        <v>3208229.3</v>
       </c>
       <c r="W14">
-        <v>973.6428100000001</v>
+        <v>917.7844900000002</v>
       </c>
       <c r="X14">
-        <v>365.6199</v>
+        <v>358.70562</v>
       </c>
       <c r="Y14">
-        <v>5171.927839999999</v>
+        <v>3482.64756</v>
       </c>
       <c r="Z14">
-        <v>655.8767599999999</v>
+        <v>632.7367</v>
       </c>
       <c r="AA14">
-        <v>951.57006</v>
+        <v>853.23778</v>
       </c>
       <c r="AB14">
-        <v>590.7700999999998</v>
+        <v>590.6462099999999</v>
       </c>
       <c r="AC14">
         <v>675.4623</v>
       </c>
       <c r="AD14">
-        <v>672.96225</v>
+        <v>675.30388</v>
       </c>
       <c r="AE14">
-        <v>574.7490600000001</v>
+        <v>577.3549600000001</v>
       </c>
       <c r="AF14">
-        <v>1149.16696</v>
+        <v>1070.16596</v>
       </c>
       <c r="AG14">
-        <v>6294220</v>
+        <v>5917658</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1895,94 +1895,94 @@
         <v>50</v>
       </c>
       <c r="D15">
-        <v>114652800</v>
+        <v>110689095</v>
       </c>
       <c r="E15">
-        <v>4.776101909999999E+33</v>
+        <v>1.6701241011E+33</v>
       </c>
       <c r="F15">
-        <v>203148.13</v>
+        <v>232143.07</v>
       </c>
       <c r="G15">
-        <v>202.1615</v>
+        <v>196.99525</v>
       </c>
       <c r="H15">
-        <v>182.6628</v>
+        <v>174.98017</v>
       </c>
       <c r="I15">
-        <v>2.846858999999999</v>
+        <v>2.755107699999999</v>
       </c>
       <c r="J15">
-        <v>333.2349</v>
+        <v>330.4109999999999</v>
       </c>
       <c r="K15">
-        <v>182.09332</v>
+        <v>180.96006</v>
       </c>
       <c r="L15">
-        <v>2430.80543</v>
+        <v>2479.0088</v>
       </c>
       <c r="M15">
-        <v>4733.900999999999</v>
+        <v>4651.266399999999</v>
       </c>
       <c r="N15">
-        <v>7103.756599999999</v>
+        <v>7980.702500000001</v>
       </c>
       <c r="O15">
         <v>54612870</v>
       </c>
       <c r="P15">
-        <v>39903570</v>
+        <v>32233928.5</v>
       </c>
       <c r="Q15">
-        <v>2057488</v>
+        <v>1615669.87</v>
       </c>
       <c r="R15">
-        <v>15044950</v>
+        <v>13321995.4</v>
       </c>
       <c r="S15">
-        <v>1826.8634</v>
+        <v>1671.8404</v>
       </c>
       <c r="T15">
-        <v>1059.864</v>
+        <v>1058.2745</v>
       </c>
       <c r="U15">
-        <v>4719459.5</v>
+        <v>4282734.4</v>
       </c>
       <c r="V15">
-        <v>3817087.2</v>
+        <v>3208229.3</v>
       </c>
       <c r="W15">
-        <v>973.6428100000001</v>
+        <v>917.7844900000002</v>
       </c>
       <c r="X15">
-        <v>365.6199</v>
+        <v>358.70562</v>
       </c>
       <c r="Y15">
-        <v>5171.927839999999</v>
+        <v>3482.64756</v>
       </c>
       <c r="Z15">
-        <v>655.8767599999999</v>
+        <v>632.7367</v>
       </c>
       <c r="AA15">
-        <v>951.57006</v>
+        <v>853.23778</v>
       </c>
       <c r="AB15">
-        <v>590.7700999999998</v>
+        <v>590.6462099999999</v>
       </c>
       <c r="AC15">
         <v>675.4623</v>
       </c>
       <c r="AD15">
-        <v>672.96225</v>
+        <v>675.30388</v>
       </c>
       <c r="AE15">
-        <v>574.7490600000001</v>
+        <v>577.3549600000001</v>
       </c>
       <c r="AF15">
-        <v>1149.16696</v>
+        <v>1070.16596</v>
       </c>
       <c r="AG15">
-        <v>6294220</v>
+        <v>5917658</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -1996,94 +1996,94 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>114652800</v>
+        <v>110689095</v>
       </c>
       <c r="E16">
-        <v>4.776101909999999E+33</v>
+        <v>1.6701241011E+33</v>
       </c>
       <c r="F16">
-        <v>203148.13</v>
+        <v>224945.43</v>
       </c>
       <c r="G16">
-        <v>202.1615</v>
+        <v>196.99525</v>
       </c>
       <c r="H16">
-        <v>182.6628</v>
+        <v>174.98017</v>
       </c>
       <c r="I16">
-        <v>2.846858999999999</v>
+        <v>2.755107699999999</v>
       </c>
       <c r="J16">
-        <v>333.2349</v>
+        <v>330.4109999999999</v>
       </c>
       <c r="K16">
-        <v>182.09332</v>
+        <v>180.96006</v>
       </c>
       <c r="L16">
-        <v>2430.80543</v>
+        <v>2479.0088</v>
       </c>
       <c r="M16">
-        <v>4733.900999999999</v>
+        <v>4651.266399999999</v>
       </c>
       <c r="N16">
-        <v>6979.599099999999</v>
+        <v>7980.702500000001</v>
       </c>
       <c r="O16">
         <v>54612870</v>
       </c>
       <c r="P16">
-        <v>39903570</v>
+        <v>32233928.5</v>
       </c>
       <c r="Q16">
-        <v>2057488</v>
+        <v>1615669.87</v>
       </c>
       <c r="R16">
-        <v>15044950</v>
+        <v>13321995.4</v>
       </c>
       <c r="S16">
-        <v>1826.8634</v>
+        <v>1671.8404</v>
       </c>
       <c r="T16">
-        <v>1059.864</v>
+        <v>1058.2745</v>
       </c>
       <c r="U16">
-        <v>4719459.5</v>
+        <v>4282734.4</v>
       </c>
       <c r="V16">
-        <v>3817087.2</v>
+        <v>3208229.3</v>
       </c>
       <c r="W16">
-        <v>973.6428100000001</v>
+        <v>917.7844900000002</v>
       </c>
       <c r="X16">
-        <v>365.6199</v>
+        <v>358.70562</v>
       </c>
       <c r="Y16">
-        <v>5171.927839999999</v>
+        <v>3482.64756</v>
       </c>
       <c r="Z16">
-        <v>655.8767599999999</v>
+        <v>632.7367</v>
       </c>
       <c r="AA16">
-        <v>951.57006</v>
+        <v>853.23778</v>
       </c>
       <c r="AB16">
-        <v>590.7700999999998</v>
+        <v>590.6462099999999</v>
       </c>
       <c r="AC16">
         <v>675.4623</v>
       </c>
       <c r="AD16">
-        <v>672.96225</v>
+        <v>675.30388</v>
       </c>
       <c r="AE16">
-        <v>574.7490600000001</v>
+        <v>577.3549600000001</v>
       </c>
       <c r="AF16">
-        <v>1149.16696</v>
+        <v>1070.16596</v>
       </c>
       <c r="AG16">
-        <v>6294220</v>
+        <v>5917658</v>
       </c>
     </row>
   </sheetData>
